--- a/data/section_2.xlsx
+++ b/data/section_2.xlsx
@@ -360,7 +360,7 @@
       <c r="D1" s="7" t="n">
         <v>6016855180</v>
       </c>
-      <c r="E1" t="n">
+      <c r="E1" s="7" t="n">
         <v>6959852164</v>
       </c>
     </row>
@@ -385,7 +385,7 @@
           <t>dgdsg gs dgds</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="7" t="inlineStr">
         <is>
           <t>fsd fds fdsf</t>
         </is>
@@ -804,6 +804,11 @@
           <t>Читать рабочие чертежи, электрические схемы, спецификации монтируемой кабельно-проводной продукции, соединительных и защитных устройств</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="45.8" customHeight="1" s="8">
       <c r="A41" s="12" t="n"/>
@@ -812,6 +817,11 @@
           <t>Пользоваться ручным и механизированным инструментом для обрезки, зачистки, пайки и подключения кабельно-проводной продукции к соединительным устройствам и укладки в короба</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="45.8" customHeight="1" s="8">
       <c r="A42" s="12" t="n"/>
@@ -820,6 +830,11 @@
           <t>Применять требования нормативных правовых актов, нормативно-технических и методических документов по монтажу слаботочного электрооборудования систем охраны и безопасности объектов капитального строительства</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="45.8" customHeight="1" s="8">
       <c r="A43" s="12" t="n"/>
@@ -828,6 +843,11 @@
           <t>Применять средства индивидуальной защиты, пожаротушения и первой помощи пострадавшим</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="45.8" customHeight="1" s="8">
       <c r="A44" s="12" t="n"/>
@@ -836,6 +856,11 @@
           <t>Пользоваться стандартными компьютерными офисными приложениями (браузерами, электронными словарями и профессиональными ресурсами информационно-телекоммуникационной сети "Интернет")</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="45.8" customHeight="1" s="8">
       <c r="A45" s="12" t="n"/>
@@ -844,6 +869,11 @@
           <t>Соблюдать требования охраны труда, правила технической эксплуатации электроустановок потребителей, пожарной и экологической безопасности при выполнении работ</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="45.8" customHeight="1" s="8">
       <c r="A46" s="12" t="inlineStr">
@@ -854,6 +884,11 @@
       <c r="B46" s="11" t="inlineStr">
         <is>
           <t>Условные изображения на чертежах и схемах монтируемого слаботочного электрооборудования систем охраны и безопасности</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Нет</t>
         </is>
       </c>
     </row>
@@ -864,6 +899,11 @@
           <t>Правила пользования ручным и механизированным инструментом для обрезки, зачистки, пайки и подключения кабельно-проводной продукции к соединительным устройствам и укладки в короба</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="45.8" customHeight="1" s="8">
       <c r="A48" s="12" t="n"/>
@@ -872,6 +912,11 @@
           <t>Правила монтажа слаботочных линий связи, коммутирующих узлов и слаботочного электрооборудования</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="45.8" customHeight="1" s="8">
       <c r="A49" s="12" t="n"/>
@@ -880,6 +925,11 @@
           <t>Требования нормативных правовых актов, нормативно-технических и методических документов по монтажу слаботочного электрооборудования систем охраны и безопасности объектов капитального строительства</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="45.8" customHeight="1" s="8">
       <c r="A50" s="12" t="n"/>
@@ -888,6 +938,11 @@
           <t>Правила по охране труда и правила технической эксплуатации электроустановок потребителей</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="45.8" customHeight="1" s="8">
       <c r="A51" s="12" t="n"/>
@@ -896,6 +951,11 @@
           <t>Требования охраны труда, пожарной и экологической безопасности при выполнении работ по монтажу слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="45.8" customHeight="1" s="8">
       <c r="A52" s="12" t="n"/>
@@ -904,6 +964,11 @@
           <t>Требования, предъявляемые к рациональной организации труда на рабочем месте</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="45.8" customHeight="1" s="8">
       <c r="A53" s="12" t="n"/>
@@ -912,12 +977,22 @@
           <t>Правила применения средств индивидуальной защиты, пожаротушения и первой помощи пострадавшим</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="45.8" customHeight="1" s="8">
       <c r="A54" s="12" t="n"/>
       <c r="B54" s="11" t="inlineStr">
         <is>
           <t>Стандартные компьютерные офисные приложения, браузеры, электронные словари и профессиональные ресурсы информационно-телекоммуникационной сети "Интернет"</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Нет</t>
         </is>
       </c>
     </row>

--- a/data/section_2.xlsx
+++ b/data/section_2.xlsx
@@ -331,19 +331,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
     <col width="24.65" customWidth="1" style="7" min="1" max="1"/>
     <col width="91.88" customWidth="1" style="7" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.5" customHeight="1" s="8">
+    <row r="1" ht="32.25" customHeight="1" s="8">
       <c r="A1" s="9" t="inlineStr">
         <is>
           <t>-</t>
@@ -357,14 +357,8 @@
       <c r="C1" s="7" t="n">
         <v>603789543</v>
       </c>
-      <c r="D1" s="7" t="n">
-        <v>6016855180</v>
-      </c>
-      <c r="E1" s="7" t="n">
-        <v>6959852164</v>
-      </c>
-    </row>
-    <row r="2" ht="32.5" customHeight="1" s="8">
+    </row>
+    <row r="2" ht="32.25" customHeight="1" s="8">
       <c r="A2" s="9" t="inlineStr">
         <is>
           <t>-</t>
@@ -377,21 +371,11 @@
       </c>
       <c r="C2" s="7" t="inlineStr">
         <is>
-          <t>gdfdgf gfgdf gfg</t>
-        </is>
-      </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>dgdsg gs dgds</t>
-        </is>
-      </c>
-      <c r="E2" s="7" t="inlineStr">
-        <is>
-          <t>fsd fds fdsf</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="45.8" customHeight="1" s="8">
+          <t>errefd fdsf dfds</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="45.75" customHeight="1" s="8">
       <c r="A3" s="10" t="n"/>
       <c r="B3" s="11" t="inlineStr">
         <is>
@@ -399,7 +383,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="45.8" customHeight="1" s="8">
+    <row r="4" ht="45.75" customHeight="1" s="8">
       <c r="A4" s="12" t="inlineStr">
         <is>
           <t>Необходимые умения</t>
@@ -411,7 +395,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="45.8" customHeight="1" s="8">
+    <row r="5" ht="45.75" customHeight="1" s="8">
       <c r="A5" s="12" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
@@ -419,7 +403,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="45.8" customHeight="1" s="8">
+    <row r="6" ht="45.75" customHeight="1" s="8">
       <c r="A6" s="12" t="n"/>
       <c r="B6" s="12" t="inlineStr">
         <is>
@@ -427,7 +411,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="45.8" customHeight="1" s="8">
+    <row r="7" ht="45.75" customHeight="1" s="8">
       <c r="A7" s="12" t="n"/>
       <c r="B7" s="12" t="inlineStr">
         <is>
@@ -435,7 +419,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="45.8" customHeight="1" s="8">
+    <row r="8" ht="45.75" customHeight="1" s="8">
       <c r="A8" s="12" t="n"/>
       <c r="B8" s="12" t="inlineStr">
         <is>
@@ -443,7 +427,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="45.8" customHeight="1" s="8">
+    <row r="9" ht="45.75" customHeight="1" s="8">
       <c r="A9" s="12" t="n"/>
       <c r="B9" s="12" t="inlineStr">
         <is>
@@ -451,7 +435,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="45.8" customHeight="1" s="8">
+    <row r="10" ht="45.75" customHeight="1" s="8">
       <c r="A10" s="12" t="inlineStr">
         <is>
           <t>Необходимые знания</t>
@@ -463,7 +447,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="45.8" customHeight="1" s="8">
+    <row r="11" ht="45.75" customHeight="1" s="8">
       <c r="A11" s="12" t="n"/>
       <c r="B11" s="12" t="inlineStr">
         <is>
@@ -471,7 +455,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="45.8" customHeight="1" s="8">
+    <row r="12" ht="45.75" customHeight="1" s="8">
       <c r="A12" s="12" t="n"/>
       <c r="B12" s="12" t="inlineStr">
         <is>
@@ -479,7 +463,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="45.8" customHeight="1" s="8">
+    <row r="13" ht="45.75" customHeight="1" s="8">
       <c r="A13" s="12" t="n"/>
       <c r="B13" s="12" t="inlineStr">
         <is>
@@ -487,7 +471,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="45.8" customHeight="1" s="8">
+    <row r="14" ht="45.75" customHeight="1" s="8">
       <c r="A14" s="12" t="n"/>
       <c r="B14" s="12" t="inlineStr">
         <is>
@@ -495,7 +479,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="45.8" customHeight="1" s="8">
+    <row r="15" ht="45.75" customHeight="1" s="8">
       <c r="A15" s="12" t="n"/>
       <c r="B15" s="12" t="inlineStr">
         <is>
@@ -503,7 +487,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="45.8" customHeight="1" s="8">
+    <row r="16" ht="45.75" customHeight="1" s="8">
       <c r="A16" s="12" t="n"/>
       <c r="B16" s="12" t="inlineStr">
         <is>
@@ -511,7 +495,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="45.8" customHeight="1" s="8">
+    <row r="17" ht="45.75" customHeight="1" s="8">
       <c r="A17" s="12" t="n"/>
       <c r="B17" s="12" t="inlineStr">
         <is>
@@ -519,7 +503,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="45.8" customHeight="1" s="8">
+    <row r="18" ht="45.75" customHeight="1" s="8">
       <c r="A18" s="12" t="n"/>
       <c r="B18" s="12" t="inlineStr">
         <is>
@@ -527,7 +511,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="45.8" customHeight="1" s="8">
+    <row r="19" ht="45.75" customHeight="1" s="8">
       <c r="A19" s="12" t="n"/>
       <c r="B19" s="12" t="inlineStr">
         <is>
@@ -535,15 +519,20 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="45.8" customHeight="1" s="8">
+    <row r="20" ht="45.75" customHeight="1" s="8">
       <c r="A20" s="10" t="n"/>
       <c r="B20" s="11" t="inlineStr">
         <is>
           <t>2.2. Проверка проведенного монтажа (кабельных трасс, соединительных устройств, коробок и кабельно-проводной продукции слаботочных линий связи для комплексов технических средств охраны и безопасности) и соединений в соответствии с технической документацией и проектной документацией</t>
         </is>
       </c>
-    </row>
-    <row r="21" ht="45.8" customHeight="1" s="8">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="45.75" customHeight="1" s="8">
       <c r="A21" s="12" t="inlineStr">
         <is>
           <t>Необходимые умения</t>
@@ -554,104 +543,104 @@
           <t>Читать рабочие чертежи, электрические схемы, спецификации монтируемой кабельно-проводной продукции</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="45.8" customHeight="1" s="8">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="45.75" customHeight="1" s="8">
       <c r="A22" s="12" t="n"/>
       <c r="B22" s="11" t="inlineStr">
         <is>
           <t>Пользоваться ручным и механизированным инструментом для соединения и пайки кабельно-проводной продукции</t>
         </is>
       </c>
-      <c r="C22" s="7" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="45.8" customHeight="1" s="8">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="45.75" customHeight="1" s="8">
       <c r="A23" s="12" t="n"/>
       <c r="B23" s="11" t="inlineStr">
         <is>
           <t>Пользоваться приборами измерения для проверки электрического сопротивления и измерения параметров цепи</t>
         </is>
       </c>
-      <c r="C23" s="7" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="45.8" customHeight="1" s="8">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="45.75" customHeight="1" s="8">
       <c r="A24" s="12" t="n"/>
       <c r="B24" s="11" t="inlineStr">
         <is>
           <t>Выявлять неисправности в собранных слаботочных цепях для монтажа элементов и узлов электрооборудования</t>
         </is>
       </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="45.8" customHeight="1" s="8">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="45.75" customHeight="1" s="8">
       <c r="A25" s="12" t="n"/>
       <c r="B25" s="11" t="inlineStr">
         <is>
           <t>Применять требования нормативных правовых актов, нормативно-технических и методических документов по монтажу слаботочного электрооборудования систем охраны и безопасности объектов капитального строительства</t>
         </is>
       </c>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="45.8" customHeight="1" s="8">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="45.75" customHeight="1" s="8">
       <c r="A26" s="12" t="n"/>
       <c r="B26" s="11" t="inlineStr">
         <is>
           <t>Применять средства индивидуальной защиты, пожаротушения и первой помощи пострадавшим</t>
         </is>
       </c>
-      <c r="C26" s="7" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="45.8" customHeight="1" s="8">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="45.75" customHeight="1" s="8">
       <c r="A27" s="12" t="n"/>
       <c r="B27" s="11" t="inlineStr">
         <is>
           <t>Пользоваться стандартными компьютерными офисными приложениями, браузерами, электронными словарями и профессиональными ресурсами информационно-телекоммуникационной сети "Интернет"</t>
         </is>
       </c>
-      <c r="C27" s="7" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="45.8" customHeight="1" s="8">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="45.75" customHeight="1" s="8">
       <c r="A28" s="12" t="n"/>
       <c r="B28" s="11" t="inlineStr">
         <is>
           <t>Соблюдать требования охраны труда, правила технической эксплуатации электроустановок потребителей, пожарной и экологической безопасности при выполнении работ</t>
         </is>
       </c>
-      <c r="C28" s="7" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="45.8" customHeight="1" s="8">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="45.75" customHeight="1" s="8">
       <c r="A29" s="13" t="inlineStr">
         <is>
           <t>Необходимые знания</t>
@@ -662,138 +651,143 @@
           <t>Условные изображения на чертежах и схемах монтируемого слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C29" s="7" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="45.8" customHeight="1" s="8">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="45.75" customHeight="1" s="8">
       <c r="A30" s="13" t="n"/>
       <c r="B30" s="11" t="inlineStr">
         <is>
           <t>Правила пользования ручным и механизированным инструментом для соединения и пайки кабельно-проводной продукции</t>
         </is>
       </c>
-      <c r="C30" s="7" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="45.8" customHeight="1" s="8">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="45.75" customHeight="1" s="8">
       <c r="A31" s="13" t="n"/>
       <c r="B31" s="11" t="inlineStr">
         <is>
           <t>Правила пользования приборами измерения для проверки электрического сопротивления и измерения параметров цепи</t>
         </is>
       </c>
-      <c r="C31" s="7" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="45.8" customHeight="1" s="8">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="45.75" customHeight="1" s="8">
       <c r="A32" s="13" t="n"/>
       <c r="B32" s="11" t="inlineStr">
         <is>
           <t>Правила монтажа слаботочных линий связи, коммутирующих узлов и слаботочного электрооборудования</t>
         </is>
       </c>
-      <c r="C32" s="7" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="45.8" customHeight="1" s="8">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="45.75" customHeight="1" s="8">
       <c r="A33" s="13" t="n"/>
       <c r="B33" s="11" t="inlineStr">
         <is>
           <t>Требования нормативных правовых актов, нормативно-технических и методических документов по монтажу слаботочного электрооборудования систем охраны и безопасности объектов капитального строительства</t>
         </is>
       </c>
-      <c r="C33" s="7" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="45.8" customHeight="1" s="8">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="45.75" customHeight="1" s="8">
       <c r="A34" s="13" t="n"/>
       <c r="B34" s="11" t="inlineStr">
         <is>
           <t>Правила по охране труда и правила технической эксплуатации электроустановок потребителей</t>
         </is>
       </c>
-      <c r="C34" s="7" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="45.8" customHeight="1" s="8">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="45.75" customHeight="1" s="8">
       <c r="A35" s="13" t="n"/>
       <c r="B35" s="11" t="inlineStr">
         <is>
           <t>Требования охраны труда, пожарной и экологической безопасности при выполнении работ по монтажу слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="45.8" customHeight="1" s="8">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="45.75" customHeight="1" s="8">
       <c r="A36" s="13" t="n"/>
       <c r="B36" s="11" t="inlineStr">
         <is>
           <t>Требования, предъявляемые к рациональной организации труда на рабочем месте</t>
         </is>
       </c>
-      <c r="C36" s="7" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="45.8" customHeight="1" s="8">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="45.75" customHeight="1" s="8">
       <c r="A37" s="13" t="n"/>
       <c r="B37" s="11" t="inlineStr">
         <is>
           <t>Правила применения средств индивидуальной защиты, пожаротушения и первой помощи пострадавшим</t>
         </is>
       </c>
-      <c r="C37" s="7" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="45.8" customHeight="1" s="8">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="45.75" customHeight="1" s="8">
       <c r="A38" s="13" t="n"/>
       <c r="B38" s="11" t="inlineStr">
         <is>
           <t>Стандартные компьютерные офисные приложения, браузеры, электронные словари и профессиональные ресурсы информационно-телекоммуникационной сети "Интернет"</t>
         </is>
       </c>
-      <c r="C38" s="7" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="45.8" customHeight="1" s="8">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="45.75" customHeight="1" s="8">
       <c r="A39" s="10" t="n"/>
       <c r="B39" s="11" t="inlineStr">
         <is>
           <t>2.3. Монтаж и проверка подключения внешних линий связи для подключения объектовых оконечных устройств к пультовым устройствам систем централизованной охраны и безопасности</t>
         </is>
       </c>
-    </row>
-    <row r="40" ht="45.8" customHeight="1" s="8">
+      <c r="C39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="45.75" customHeight="1" s="8">
       <c r="A40" s="12" t="inlineStr">
         <is>
           <t>Необходимые умения</t>
@@ -804,78 +798,78 @@
           <t>Читать рабочие чертежи, электрические схемы, спецификации монтируемой кабельно-проводной продукции, соединительных и защитных устройств</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="45.8" customHeight="1" s="8">
+      <c r="C40" s="7" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="45.75" customHeight="1" s="8">
       <c r="A41" s="12" t="n"/>
       <c r="B41" s="11" t="inlineStr">
         <is>
           <t>Пользоваться ручным и механизированным инструментом для обрезки, зачистки, пайки и подключения кабельно-проводной продукции к соединительным устройствам и укладки в короба</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="45.8" customHeight="1" s="8">
+      <c r="C41" s="7" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="45.75" customHeight="1" s="8">
       <c r="A42" s="12" t="n"/>
       <c r="B42" s="11" t="inlineStr">
         <is>
           <t>Применять требования нормативных правовых актов, нормативно-технических и методических документов по монтажу слаботочного электрооборудования систем охраны и безопасности объектов капитального строительства</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" ht="45.8" customHeight="1" s="8">
+      <c r="C42" s="7" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="45.75" customHeight="1" s="8">
       <c r="A43" s="12" t="n"/>
       <c r="B43" s="11" t="inlineStr">
         <is>
           <t>Применять средства индивидуальной защиты, пожаротушения и первой помощи пострадавшим</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" ht="45.8" customHeight="1" s="8">
+      <c r="C43" s="7" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="45.75" customHeight="1" s="8">
       <c r="A44" s="12" t="n"/>
       <c r="B44" s="11" t="inlineStr">
         <is>
           <t>Пользоваться стандартными компьютерными офисными приложениями (браузерами, электронными словарями и профессиональными ресурсами информационно-телекоммуникационной сети "Интернет")</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="45" ht="45.8" customHeight="1" s="8">
+      <c r="C44" s="7" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="45.75" customHeight="1" s="8">
       <c r="A45" s="12" t="n"/>
       <c r="B45" s="11" t="inlineStr">
         <is>
           <t>Соблюдать требования охраны труда, правила технической эксплуатации электроустановок потребителей, пожарной и экологической безопасности при выполнении работ</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="46" ht="45.8" customHeight="1" s="8">
+      <c r="C45" s="7" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="45.75" customHeight="1" s="8">
       <c r="A46" s="12" t="inlineStr">
         <is>
           <t>Необходимые знания</t>
@@ -886,113 +880,113 @@
           <t>Условные изображения на чертежах и схемах монтируемого слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" ht="45.8" customHeight="1" s="8">
+      <c r="C46" s="7" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="45.75" customHeight="1" s="8">
       <c r="A47" s="12" t="n"/>
       <c r="B47" s="11" t="inlineStr">
         <is>
           <t>Правила пользования ручным и механизированным инструментом для обрезки, зачистки, пайки и подключения кабельно-проводной продукции к соединительным устройствам и укладки в короба</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" ht="45.8" customHeight="1" s="8">
+      <c r="C47" s="7" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="45.75" customHeight="1" s="8">
       <c r="A48" s="12" t="n"/>
       <c r="B48" s="11" t="inlineStr">
         <is>
           <t>Правила монтажа слаботочных линий связи, коммутирующих узлов и слаботочного электрооборудования</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" ht="45.8" customHeight="1" s="8">
+      <c r="C48" s="7" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="45.75" customHeight="1" s="8">
       <c r="A49" s="12" t="n"/>
       <c r="B49" s="11" t="inlineStr">
         <is>
           <t>Требования нормативных правовых актов, нормативно-технических и методических документов по монтажу слаботочного электрооборудования систем охраны и безопасности объектов капитального строительства</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" ht="45.8" customHeight="1" s="8">
+      <c r="C49" s="7" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="45.75" customHeight="1" s="8">
       <c r="A50" s="12" t="n"/>
       <c r="B50" s="11" t="inlineStr">
         <is>
           <t>Правила по охране труда и правила технической эксплуатации электроустановок потребителей</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="45.8" customHeight="1" s="8">
+      <c r="C50" s="7" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="45.75" customHeight="1" s="8">
       <c r="A51" s="12" t="n"/>
       <c r="B51" s="11" t="inlineStr">
         <is>
           <t>Требования охраны труда, пожарной и экологической безопасности при выполнении работ по монтажу слаботочного электрооборудования систем охраны и безопасности</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" ht="45.8" customHeight="1" s="8">
+      <c r="C51" s="7" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="45.75" customHeight="1" s="8">
       <c r="A52" s="12" t="n"/>
       <c r="B52" s="11" t="inlineStr">
         <is>
           <t>Требования, предъявляемые к рациональной организации труда на рабочем месте</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-    </row>
-    <row r="53" ht="45.8" customHeight="1" s="8">
+      <c r="C52" s="7" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="45.75" customHeight="1" s="8">
       <c r="A53" s="12" t="n"/>
       <c r="B53" s="11" t="inlineStr">
         <is>
           <t>Правила применения средств индивидуальной защиты, пожаротушения и первой помощи пострадавшим</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-    </row>
-    <row r="54" ht="45.8" customHeight="1" s="8">
+      <c r="C53" s="7" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="45.75" customHeight="1" s="8">
       <c r="A54" s="12" t="n"/>
       <c r="B54" s="11" t="inlineStr">
         <is>
           <t>Стандартные компьютерные офисные приложения, браузеры, электронные словари и профессиональные ресурсы информационно-телекоммуникационной сети "Интернет"</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Нет</t>
+      <c r="C54" s="7" t="inlineStr">
+        <is>
+          <t>Да</t>
         </is>
       </c>
     </row>
